--- a/data/plot-ylimit.xlsx
+++ b/data/plot-ylimit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367C8EC7-0427-A048-AFED-E677BF27B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F4903-385E-0246-B1A5-23CE4CD7CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22580" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{B7BD178B-65B9-024E-BC3E-C01631156758}"/>
   </bookViews>
@@ -93,18 +93,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -125,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,9 +131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +450,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,13 +477,13 @@
       <c r="A2" s="3">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -500,13 +491,13 @@
       <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -514,13 +505,13 @@
       <c r="A4" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -576,11 +567,11 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>

--- a/data/plot-ylimit.xlsx
+++ b/data/plot-ylimit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F4903-385E-0246-B1A5-23CE4CD7CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC9901-0F62-594E-83F0-9BA7BA5B0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{B7BD178B-65B9-024E-BC3E-C01631156758}"/>
+    <workbookView xWindow="11720" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{B7BD178B-65B9-024E-BC3E-C01631156758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>(-149., 210.)</t>
   </si>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,33 +545,43 @@
       <c r="A8" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>

--- a/data/plot-ylimit.xlsx
+++ b/data/plot-ylimit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC9901-0F62-594E-83F0-9BA7BA5B0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C8433-DD7F-5442-A182-D988E78BDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11720" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{B7BD178B-65B9-024E-BC3E-C01631156758}"/>
   </bookViews>
@@ -119,12 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDB8310-7BAC-9840-BF27-E858E35D60E2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A5:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,132 +456,129 @@
     <col min="2" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/plot-ylimit.xlsx
+++ b/data/plot-ylimit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFdensity/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFlogdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C8433-DD7F-5442-A182-D988E78BDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0B3EE-FCAF-3E4E-8F19-708CAE26720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11720" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{B7BD178B-65B9-024E-BC3E-C01631156758}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>(-149., 210.)</t>
   </si>
@@ -51,9 +51,6 @@
     <t>natparam plot</t>
   </si>
   <si>
-    <t>density plot</t>
-  </si>
-  <si>
     <t>(-94., 117.)</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>(-3600., 4400.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score Matching </t>
+  </si>
+  <si>
+    <t>Maximum Likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log-density </t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,6 +136,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,143 +460,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDB8310-7BAC-9840-BF27-E858E35D60E2}">
-  <dimension ref="A5:D14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="4" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>